--- a/xlsx/country_comparison/solidarity_support_weight_vote_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_weight_vote_share.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -65,27 +68,27 @@
 vulnerable countries cope with climate Loss and damage</t>
   </si>
   <si>
+    <t xml:space="preserve">International levy on shipping carbon emissions,
+returned to countries based on population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
+payments until they are more able to repay</t>
+  </si>
+  <si>
     <t xml:space="preserve">Expand Security Council to new permanent members (e.g.
 India, Brazil, African Union), restrict veto use</t>
   </si>
   <si>
+    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
+year in climate finance for developing countries</t>
+  </si>
+  <si>
     <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
 allocating revenues to countries based on sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International levy on shipping carbon emissions,
-returned to countries based on population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
-payments until they are more able to repay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
-year in climate finance for developing countries</t>
   </si>
   <si>
     <t xml:space="preserve">International levy on aviation carbon emissions, raising
@@ -461,22 +464,25 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.810194888022368</v>
+        <v>0.809187541057965</v>
       </c>
       <c r="C2" t="n">
         <v>0.843978206156072</v>
       </c>
       <c r="D2" t="n">
-        <v>0.848476672113771</v>
+        <v>0.848427692052067</v>
       </c>
       <c r="E2" t="n">
-        <v>0.82466483632601</v>
+        <v>0.824709898398252</v>
       </c>
       <c r="F2" t="n">
         <v>0.873001447429718</v>
@@ -491,33 +497,36 @@
         <v>0.857393072880833</v>
       </c>
       <c r="J2" t="n">
-        <v>0.788941056403363</v>
+        <v>0.788973371785322</v>
       </c>
       <c r="K2" t="n">
-        <v>0.806212907122639</v>
+        <v>0.806207031821324</v>
       </c>
       <c r="L2" t="n">
+        <v>0.801008544697843</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.859553623962162</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.757740486553274</v>
+      <c r="N2" t="n">
+        <v>0.757626779099893</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.78794185875087</v>
+        <v>0.793366965036613</v>
       </c>
       <c r="C3" t="n">
         <v>0.820231998216116</v>
       </c>
       <c r="D3" t="n">
-        <v>0.793419945841332</v>
+        <v>0.793373367472808</v>
       </c>
       <c r="E3" t="n">
-        <v>0.799073417712739</v>
+        <v>0.799097072664609</v>
       </c>
       <c r="F3" t="n">
         <v>0.862342095281182</v>
@@ -532,33 +541,36 @@
         <v>0.839503169105142</v>
       </c>
       <c r="J3" t="n">
-        <v>0.748854231677546</v>
+        <v>0.74891156552925</v>
       </c>
       <c r="K3" t="n">
-        <v>0.803479460967465</v>
+        <v>0.803594351085608</v>
       </c>
       <c r="L3" t="n">
+        <v>0.829224529123518</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.870851551659494</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.725791711102106</v>
+      <c r="N3" t="n">
+        <v>0.725878860090792</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.730712572643564</v>
+        <v>0.748295871658231</v>
       </c>
       <c r="C4" t="n">
         <v>0.748627231605022</v>
       </c>
       <c r="D4" t="n">
-        <v>0.703362560546359</v>
+        <v>0.703301082880099</v>
       </c>
       <c r="E4" t="n">
-        <v>0.720175324443075</v>
+        <v>0.720152388692165</v>
       </c>
       <c r="F4" t="n">
         <v>0.807893199188063</v>
@@ -573,279 +585,300 @@
         <v>0.720550561248712</v>
       </c>
       <c r="J4" t="n">
-        <v>0.654895605470691</v>
+        <v>0.655019621133529</v>
       </c>
       <c r="K4" t="n">
-        <v>0.728072500161437</v>
+        <v>0.728151426836741</v>
       </c>
       <c r="L4" t="n">
+        <v>0.866768469161838</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.894499688071821</v>
       </c>
-      <c r="M4" t="n">
-        <v>0.683362285063802</v>
+      <c r="N4" t="n">
+        <v>0.683507021804741</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.72042916037702</v>
+        <v>0.699644803977167</v>
       </c>
       <c r="C5" t="n">
-        <v>0.761932435910776</v>
+        <v>0.732870289440397</v>
       </c>
       <c r="D5" t="n">
-        <v>0.721168237026044</v>
+        <v>0.752044185944775</v>
       </c>
       <c r="E5" t="n">
-        <v>0.753317793869585</v>
+        <v>0.6940206070794</v>
       </c>
       <c r="F5" t="n">
-        <v>0.760760292004357</v>
+        <v>0.754730850985435</v>
       </c>
       <c r="G5" t="n">
-        <v>0.704753173076338</v>
+        <v>0.606359310516872</v>
       </c>
       <c r="H5" t="n">
-        <v>0.761826274893759</v>
+        <v>0.747577003038328</v>
       </c>
       <c r="I5" t="n">
-        <v>0.795174607333805</v>
+        <v>0.738354993609978</v>
       </c>
       <c r="J5" t="n">
-        <v>0.700866942703336</v>
+        <v>0.708897221588476</v>
       </c>
       <c r="K5" t="n">
-        <v>0.674925579351973</v>
+        <v>0.576414783896346</v>
       </c>
       <c r="L5" t="n">
-        <v>0.836791104476278</v>
+        <v>0.72514029245591</v>
       </c>
       <c r="M5" t="n">
-        <v>0.649023293822553</v>
+        <v>0.814900578705803</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.650955072276642</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.709723223901674</v>
+        <v>0.698715666285492</v>
       </c>
       <c r="C6" t="n">
-        <v>0.746931207916325</v>
+        <v>0.689223510024568</v>
       </c>
       <c r="D6" t="n">
-        <v>0.728128011863331</v>
+        <v>0.640174218758149</v>
       </c>
       <c r="E6" t="n">
-        <v>0.73088132126832</v>
+        <v>0.662665049465059</v>
       </c>
       <c r="F6" t="n">
-        <v>0.845480597940989</v>
+        <v>0.765762693878515</v>
       </c>
       <c r="G6" t="n">
-        <v>0.665987036677</v>
+        <v>0.589760130052602</v>
       </c>
       <c r="H6" t="n">
-        <v>0.685272115193463</v>
+        <v>0.76727730886302</v>
       </c>
       <c r="I6" t="n">
-        <v>0.736136988028249</v>
+        <v>0.684062495016513</v>
       </c>
       <c r="J6" t="n">
-        <v>0.634123248071437</v>
+        <v>0.648392506898434</v>
       </c>
       <c r="K6" t="n">
-        <v>0.730828201947188</v>
+        <v>0.611045583899474</v>
       </c>
       <c r="L6" t="n">
-        <v>0.770097780765828</v>
+        <v>0.825522087700358</v>
       </c>
       <c r="M6" t="n">
-        <v>0.632183964034859</v>
+        <v>0.863575793802146</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.640485413082898</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.695892423275674</v>
+        <v>0.696886644817168</v>
       </c>
       <c r="C7" t="n">
-        <v>0.732870289440397</v>
+        <v>0.698508510826339</v>
       </c>
       <c r="D7" t="n">
-        <v>0.752115714203108</v>
+        <v>0.639494227176162</v>
       </c>
       <c r="E7" t="n">
-        <v>0.693965902003023</v>
+        <v>0.584238476063614</v>
       </c>
       <c r="F7" t="n">
-        <v>0.754730850985435</v>
+        <v>0.800152659041669</v>
       </c>
       <c r="G7" t="n">
-        <v>0.606359310516872</v>
+        <v>0.794100548139283</v>
       </c>
       <c r="H7" t="n">
-        <v>0.747577003038328</v>
+        <v>0.724925850622296</v>
       </c>
       <c r="I7" t="n">
-        <v>0.738354993609978</v>
+        <v>0.737663233832229</v>
       </c>
       <c r="J7" t="n">
-        <v>0.708796390437398</v>
+        <v>0.640198216978104</v>
       </c>
       <c r="K7" t="n">
-        <v>0.576368946847983</v>
+        <v>0.681263701142876</v>
       </c>
       <c r="L7" t="n">
-        <v>0.814900578705803</v>
+        <v>0.746898541844184</v>
       </c>
       <c r="M7" t="n">
-        <v>0.650842698582852</v>
+        <v>0.883360143018035</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.658719703625068</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.689528884612506</v>
+        <v>0.694962460493881</v>
       </c>
       <c r="C8" t="n">
-        <v>0.698508510826339</v>
+        <v>0.761932435910776</v>
       </c>
       <c r="D8" t="n">
-        <v>0.639532888622595</v>
+        <v>0.721144190433339</v>
       </c>
       <c r="E8" t="n">
-        <v>0.584322660737186</v>
+        <v>0.753374080014139</v>
       </c>
       <c r="F8" t="n">
-        <v>0.800152659041669</v>
+        <v>0.760760292004357</v>
       </c>
       <c r="G8" t="n">
-        <v>0.794100548139283</v>
+        <v>0.704753173076338</v>
       </c>
       <c r="H8" t="n">
-        <v>0.724925850622296</v>
+        <v>0.761826274893759</v>
       </c>
       <c r="I8" t="n">
-        <v>0.737663233832229</v>
+        <v>0.795174607333805</v>
       </c>
       <c r="J8" t="n">
-        <v>0.640095233948855</v>
+        <v>0.70099140405434</v>
       </c>
       <c r="K8" t="n">
-        <v>0.681201645351656</v>
+        <v>0.674878873455674</v>
       </c>
       <c r="L8" t="n">
-        <v>0.883360143018035</v>
+        <v>0.52836576507021</v>
       </c>
       <c r="M8" t="n">
-        <v>0.658528110326877</v>
+        <v>0.836791104476278</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.649041911884122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.678161164771646</v>
+        <v>0.683174203642518</v>
       </c>
       <c r="C9" t="n">
-        <v>0.689223510024568</v>
+        <v>0.69192411456902</v>
       </c>
       <c r="D9" t="n">
-        <v>0.640233538189188</v>
+        <v>0.67136180939665</v>
       </c>
       <c r="E9" t="n">
-        <v>0.66258536312998</v>
+        <v>0.679657553482977</v>
       </c>
       <c r="F9" t="n">
-        <v>0.765762693878515</v>
+        <v>0.719275169766716</v>
       </c>
       <c r="G9" t="n">
-        <v>0.589760130052602</v>
+        <v>0.636020686294837</v>
       </c>
       <c r="H9" t="n">
-        <v>0.76727730886302</v>
+        <v>0.731089662519959</v>
       </c>
       <c r="I9" t="n">
-        <v>0.684062495016513</v>
+        <v>0.67838218523904</v>
       </c>
       <c r="J9" t="n">
-        <v>0.648317410105687</v>
+        <v>0.641704396059853</v>
       </c>
       <c r="K9" t="n">
-        <v>0.610921623834305</v>
+        <v>0.579399788140582</v>
       </c>
       <c r="L9" t="n">
-        <v>0.863575793802146</v>
+        <v>0.875589503017251</v>
       </c>
       <c r="M9" t="n">
-        <v>0.640532710352467</v>
+        <v>0.858825470219245</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.591520840537896</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.654694159928647</v>
+        <v>0.682119272063001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.69192411456902</v>
+        <v>0.746931207916325</v>
       </c>
       <c r="D10" t="n">
-        <v>0.671400881696687</v>
+        <v>0.728051220092119</v>
       </c>
       <c r="E10" t="n">
-        <v>0.679618170749902</v>
+        <v>0.730873843089586</v>
       </c>
       <c r="F10" t="n">
-        <v>0.719275169766716</v>
+        <v>0.845480597940989</v>
       </c>
       <c r="G10" t="n">
-        <v>0.636020686294837</v>
+        <v>0.665987036677</v>
       </c>
       <c r="H10" t="n">
-        <v>0.731089662519959</v>
+        <v>0.685272115193463</v>
       </c>
       <c r="I10" t="n">
-        <v>0.67838218523904</v>
+        <v>0.736136988028249</v>
       </c>
       <c r="J10" t="n">
-        <v>0.641588783974229</v>
+        <v>0.634129522997038</v>
       </c>
       <c r="K10" t="n">
-        <v>0.579331228643509</v>
+        <v>0.730988448179478</v>
       </c>
       <c r="L10" t="n">
-        <v>0.858825470219245</v>
+        <v>0.50012458723726</v>
       </c>
       <c r="M10" t="n">
-        <v>0.591450266902489</v>
+        <v>0.770097780765828</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.631762229275282</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.527869258873442</v>
+        <v>0.526319576644156</v>
       </c>
       <c r="C11" t="n">
         <v>0.551475483086733</v>
       </c>
       <c r="D11" t="n">
-        <v>0.613996881427879</v>
+        <v>0.613989879120546</v>
       </c>
       <c r="E11" t="n">
-        <v>0.538939232097126</v>
+        <v>0.538994299398148</v>
       </c>
       <c r="F11" t="n">
         <v>0.52078830506763</v>
@@ -860,16 +893,19 @@
         <v>0.513338434920881</v>
       </c>
       <c r="J11" t="n">
-        <v>0.501705558439551</v>
+        <v>0.501802322471987</v>
       </c>
       <c r="K11" t="n">
-        <v>0.457537944058401</v>
+        <v>0.457604805676769</v>
       </c>
       <c r="L11" t="n">
+        <v>0.514246894490421</v>
+      </c>
+      <c r="M11" t="n">
         <v>0.695189510992556</v>
       </c>
-      <c r="M11" t="n">
-        <v>0.476181139007017</v>
+      <c r="N11" t="n">
+        <v>0.475985288378926</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_weight_vote_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_weight_vote_share.xlsx
@@ -473,7 +473,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.809187541057965</v>
+        <v>0.80964450411054</v>
       </c>
       <c r="C2" t="n">
         <v>0.843978206156072</v>
@@ -503,7 +503,7 @@
         <v>0.806207031821324</v>
       </c>
       <c r="L2" t="n">
-        <v>0.801008544697843</v>
+        <v>0.804252152930746</v>
       </c>
       <c r="M2" t="n">
         <v>0.859553623962162</v>
@@ -517,7 +517,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.793366965036613</v>
+        <v>0.793302229139668</v>
       </c>
       <c r="C3" t="n">
         <v>0.820231998216116</v>
@@ -547,7 +547,7 @@
         <v>0.803594351085608</v>
       </c>
       <c r="L3" t="n">
-        <v>0.829224529123518</v>
+        <v>0.82923199154678</v>
       </c>
       <c r="M3" t="n">
         <v>0.870851551659494</v>
@@ -561,7 +561,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.748295871658231</v>
+        <v>0.748783561969176</v>
       </c>
       <c r="C4" t="n">
         <v>0.748627231605022</v>
@@ -591,7 +591,7 @@
         <v>0.728151426836741</v>
       </c>
       <c r="L4" t="n">
-        <v>0.866768469161838</v>
+        <v>0.872657913626467</v>
       </c>
       <c r="M4" t="n">
         <v>0.894499688071821</v>
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.699644803977167</v>
+        <v>0.700580371227263</v>
       </c>
       <c r="C5" t="n">
         <v>0.732870289440397</v>
@@ -635,7 +635,7 @@
         <v>0.576414783896346</v>
       </c>
       <c r="L5" t="n">
-        <v>0.72514029245591</v>
+        <v>0.733977871206694</v>
       </c>
       <c r="M5" t="n">
         <v>0.814900578705803</v>
@@ -649,7 +649,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.698715666285492</v>
+        <v>0.699085587371477</v>
       </c>
       <c r="C6" t="n">
         <v>0.689223510024568</v>
@@ -679,7 +679,7 @@
         <v>0.611045583899474</v>
       </c>
       <c r="L6" t="n">
-        <v>0.825522087700358</v>
+        <v>0.828908511397624</v>
       </c>
       <c r="M6" t="n">
         <v>0.863575793802146</v>
@@ -693,7 +693,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.696886644817168</v>
+        <v>0.696623799252374</v>
       </c>
       <c r="C7" t="n">
         <v>0.698508510826339</v>
@@ -723,7 +723,7 @@
         <v>0.681263701142876</v>
       </c>
       <c r="L7" t="n">
-        <v>0.746898541844184</v>
+        <v>0.745017642011337</v>
       </c>
       <c r="M7" t="n">
         <v>0.883360143018035</v>
@@ -737,7 +737,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.694962460493881</v>
+        <v>0.694896977800978</v>
       </c>
       <c r="C8" t="n">
         <v>0.761932435910776</v>
@@ -767,7 +767,7 @@
         <v>0.674878873455674</v>
       </c>
       <c r="L8" t="n">
-        <v>0.52836576507021</v>
+        <v>0.528025667438765</v>
       </c>
       <c r="M8" t="n">
         <v>0.836791104476278</v>
@@ -781,7 +781,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.683174203642518</v>
+        <v>0.683123223291107</v>
       </c>
       <c r="C9" t="n">
         <v>0.69192411456902</v>
@@ -811,7 +811,7 @@
         <v>0.579399788140582</v>
       </c>
       <c r="L9" t="n">
-        <v>0.875589503017251</v>
+        <v>0.875248081044094</v>
       </c>
       <c r="M9" t="n">
         <v>0.858825470219245</v>
@@ -825,7 +825,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.682119272063001</v>
+        <v>0.682371653787096</v>
       </c>
       <c r="C10" t="n">
         <v>0.746931207916325</v>
@@ -855,7 +855,7 @@
         <v>0.730988448179478</v>
       </c>
       <c r="L10" t="n">
-        <v>0.50012458723726</v>
+        <v>0.50192316323788</v>
       </c>
       <c r="M10" t="n">
         <v>0.770097780765828</v>
@@ -869,7 +869,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.526319576644156</v>
+        <v>0.526444294027161</v>
       </c>
       <c r="C11" t="n">
         <v>0.551475483086733</v>
@@ -899,7 +899,7 @@
         <v>0.457604805676769</v>
       </c>
       <c r="L11" t="n">
-        <v>0.514246894490421</v>
+        <v>0.514890820206037</v>
       </c>
       <c r="M11" t="n">
         <v>0.695189510992556</v>
